--- a/02_CLanguage/011switch原理 while循环逆向.xlsx
+++ b/02_CLanguage/011switch原理 while循环逆向.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yui\Desktop\滴水三期\2015-02-06\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\.important\mySoftwareReverse\02_CLanguage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3CB1A2B-8C44-4674-A064-801ADD65E38A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F015F946-799A-415F-B298-F6EDC32CB2A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -659,10 +659,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">  是为了后面 [ecx*4+xxxxx]表达式 定位出正确定</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>1，</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -968,6 +964,10 @@
   </si>
   <si>
     <t xml:space="preserve">  小表使用cl寄存器，最多存储0xff个数据</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  是为了后面 [ecx*4+xxxxx]表达式 定位出正确地址</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -4391,7 +4391,7 @@
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B4" s="43" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -4654,9 +4654,7 @@
   </sheetPr>
   <dimension ref="B3:O69"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A46" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -5579,9 +5577,7 @@
   </sheetPr>
   <dimension ref="B3:N38"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A16" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
-    </sheetView>
+    <sheetView showGridLines="0" topLeftCell="A31" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -6195,26 +6191,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A4:T133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I112" sqref="I112"/>
+    <sheetView tabSelected="1" topLeftCell="B21" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P43" sqref="P43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D5" s="15" t="s">
         <v>137</v>
@@ -6234,10 +6230,10 @@
     </row>
     <row r="6" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D6" s="15" t="s">
         <v>15</v>
@@ -6257,7 +6253,7 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D7" s="15"/>
       <c r="E7" s="15" t="s">
@@ -6277,7 +6273,7 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D8" s="15"/>
       <c r="E8" s="15" t="s">
@@ -6317,7 +6313,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B10" s="14" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D10" s="15"/>
       <c r="E10" s="15"/>
@@ -6354,7 +6350,7 @@
     </row>
     <row r="12" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="14" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D12" s="15"/>
       <c r="E12" s="15"/>
@@ -6500,7 +6496,7 @@
     </row>
     <row r="29" spans="3:16" x14ac:dyDescent="0.25">
       <c r="D29" s="16" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E29" s="16"/>
       <c r="F29" s="16"/>
@@ -6518,7 +6514,7 @@
       <c r="H30" s="16"/>
       <c r="I30" s="16"/>
       <c r="J30" s="32" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K30" s="32"/>
       <c r="L30" s="32"/>
@@ -6587,7 +6583,7 @@
       <c r="O34" s="29"/>
       <c r="P34" s="30"/>
       <c r="Q34" s="16" t="s">
-        <v>177</v>
+        <v>269</v>
       </c>
     </row>
     <row r="35" spans="3:17" x14ac:dyDescent="0.25">
@@ -6830,7 +6826,7 @@
     </row>
     <row r="54" spans="3:17" x14ac:dyDescent="0.25">
       <c r="D54" s="16" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E54" s="16"/>
       <c r="F54" s="16"/>
@@ -6863,7 +6859,7 @@
       <c r="G56" s="15"/>
       <c r="H56" s="15"/>
       <c r="L56" s="15" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M56" s="15"/>
       <c r="N56" s="15"/>
@@ -6880,7 +6876,7 @@
       <c r="G57" s="15"/>
       <c r="H57" s="15"/>
       <c r="L57" s="15" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M57" s="34"/>
       <c r="N57" s="15"/>
@@ -6897,7 +6893,7 @@
       </c>
       <c r="H58" s="15"/>
       <c r="L58" s="15" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M58" s="15"/>
       <c r="N58" s="15"/>
@@ -6914,7 +6910,7 @@
       </c>
       <c r="H59" s="15"/>
       <c r="L59" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M59" s="35"/>
       <c r="N59" s="15"/>
@@ -6931,7 +6927,7 @@
       <c r="G60" s="15"/>
       <c r="H60" s="15"/>
       <c r="L60" s="15" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="M60" s="15"/>
       <c r="N60" s="15"/>
@@ -6948,7 +6944,7 @@
       </c>
       <c r="H61" s="15"/>
       <c r="L61" s="15" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="M61" s="35"/>
       <c r="N61" s="15"/>
@@ -6965,7 +6961,7 @@
       </c>
       <c r="H62" s="15"/>
       <c r="L62" s="15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M62" s="15"/>
       <c r="N62" s="15"/>
@@ -6982,7 +6978,7 @@
       <c r="G63" s="15"/>
       <c r="H63" s="15"/>
       <c r="L63" s="15" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="M63" s="35"/>
       <c r="N63" s="15"/>
@@ -6999,7 +6995,7 @@
       </c>
       <c r="H64" s="15"/>
       <c r="L64" s="15" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="M64" s="35"/>
       <c r="N64" s="15"/>
@@ -7016,7 +7012,7 @@
       </c>
       <c r="H65" s="15"/>
       <c r="L65" s="15" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="M65" s="15"/>
       <c r="N65" s="15"/>
@@ -7033,7 +7029,7 @@
       <c r="G66" s="15"/>
       <c r="H66" s="15"/>
       <c r="L66" s="15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="M66" s="35"/>
       <c r="N66" s="15"/>
@@ -7050,7 +7046,7 @@
       </c>
       <c r="H67" s="15"/>
       <c r="L67" s="15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="M67" s="15"/>
       <c r="N67" s="15"/>
@@ -7067,7 +7063,7 @@
       </c>
       <c r="H68" s="15"/>
       <c r="L68" s="15" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="M68" s="35"/>
       <c r="N68" s="15"/>
@@ -7079,12 +7075,12 @@
       <c r="D69" s="15"/>
       <c r="E69" s="15"/>
       <c r="F69" s="15" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G69" s="15"/>
       <c r="H69" s="15"/>
       <c r="L69" s="15" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="M69" s="35"/>
       <c r="N69" s="15"/>
@@ -7097,7 +7093,7 @@
       <c r="E70" s="15"/>
       <c r="F70" s="15"/>
       <c r="G70" s="15" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H70" s="15"/>
     </row>
@@ -7155,22 +7151,22 @@
     </row>
     <row r="80" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D80" s="16" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="81" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D81" s="16" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="82" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D82" s="16" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="83" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D83" s="15" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E83" s="15"/>
       <c r="F83" s="15"/>
@@ -7178,7 +7174,7 @@
       <c r="H83" s="15"/>
       <c r="I83" s="15"/>
       <c r="L83" s="15" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M83" s="15"/>
       <c r="N83" s="15"/>
@@ -7208,13 +7204,13 @@
       <c r="D85" s="15"/>
       <c r="E85" s="15"/>
       <c r="F85" s="15" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G85" s="15"/>
       <c r="H85" s="15"/>
       <c r="I85" s="15"/>
       <c r="L85" s="15" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="M85" s="15"/>
       <c r="N85" s="15"/>
@@ -7227,7 +7223,7 @@
       <c r="E86" s="15"/>
       <c r="F86" s="15"/>
       <c r="G86" s="15" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H86" s="15"/>
       <c r="I86" s="15"/>
@@ -7250,7 +7246,7 @@
       <c r="H87" s="15"/>
       <c r="I87" s="15"/>
       <c r="L87" s="15" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="M87" s="15"/>
       <c r="N87" s="15"/>
@@ -7262,13 +7258,13 @@
       <c r="D88" s="15"/>
       <c r="E88" s="15"/>
       <c r="F88" s="15" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G88" s="15"/>
       <c r="H88" s="15"/>
       <c r="I88" s="15"/>
       <c r="L88" s="28" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="M88" s="29"/>
       <c r="N88" s="29"/>
@@ -7276,7 +7272,7 @@
       <c r="P88" s="29"/>
       <c r="Q88" s="30"/>
       <c r="R88" s="16" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="89" spans="4:18" x14ac:dyDescent="0.25">
@@ -7284,7 +7280,7 @@
       <c r="E89" s="15"/>
       <c r="F89" s="15"/>
       <c r="G89" s="15" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H89" s="15"/>
       <c r="I89" s="15"/>
@@ -7307,7 +7303,7 @@
       <c r="H90" s="15"/>
       <c r="I90" s="15"/>
       <c r="L90" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="M90" s="15"/>
       <c r="N90" s="15"/>
@@ -7319,7 +7315,7 @@
       <c r="D91" s="15"/>
       <c r="E91" s="15"/>
       <c r="F91" s="15" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G91" s="15"/>
       <c r="H91" s="15"/>
@@ -7330,7 +7326,7 @@
       <c r="E92" s="15"/>
       <c r="F92" s="15"/>
       <c r="G92" s="15" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H92" s="15"/>
       <c r="I92" s="15"/>
@@ -7345,7 +7341,7 @@
       <c r="H93" s="15"/>
       <c r="I93" s="15"/>
       <c r="L93" s="16" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="94" spans="4:18" x14ac:dyDescent="0.25">
@@ -7356,7 +7352,7 @@
       <c r="H94" s="15"/>
       <c r="I94" s="15"/>
       <c r="L94" s="15" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="M94" s="15"/>
       <c r="N94" s="15"/>
@@ -7368,13 +7364,13 @@
       <c r="D95" s="15"/>
       <c r="E95" s="15"/>
       <c r="F95" s="15" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G95" s="15"/>
       <c r="H95" s="15"/>
       <c r="I95" s="15"/>
       <c r="L95" s="15" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="M95" s="15"/>
       <c r="N95" s="15"/>
@@ -7387,12 +7383,12 @@
       <c r="E96" s="15"/>
       <c r="F96" s="15"/>
       <c r="G96" s="15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H96" s="15"/>
       <c r="I96" s="15"/>
       <c r="L96" s="15" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="M96" s="15"/>
       <c r="N96" s="15"/>
@@ -7410,12 +7406,12 @@
       <c r="H97" s="15"/>
       <c r="I97" s="15"/>
       <c r="L97" s="28" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="M97" s="29"/>
       <c r="N97" s="29"/>
       <c r="O97" s="37" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="P97" s="38"/>
     </row>
@@ -7423,13 +7419,13 @@
       <c r="D98" s="15"/>
       <c r="E98" s="15"/>
       <c r="F98" s="15" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G98" s="15"/>
       <c r="H98" s="15"/>
       <c r="I98" s="15"/>
       <c r="L98" s="15" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="M98" s="15"/>
       <c r="N98" s="15"/>
@@ -7442,12 +7438,12 @@
       <c r="E99" s="15"/>
       <c r="F99" s="15"/>
       <c r="G99" s="15" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H99" s="15"/>
       <c r="I99" s="15"/>
       <c r="L99" s="15" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="M99" s="15"/>
       <c r="N99" s="15"/>
@@ -7465,7 +7461,7 @@
       <c r="H100" s="15"/>
       <c r="I100" s="15"/>
       <c r="L100" s="15" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M100" s="15"/>
       <c r="N100" s="15"/>
@@ -7477,13 +7473,13 @@
       <c r="D101" s="15"/>
       <c r="E101" s="15"/>
       <c r="F101" s="15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G101" s="15"/>
       <c r="H101" s="15"/>
       <c r="I101" s="15"/>
       <c r="L101" s="15" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M101" s="15"/>
       <c r="N101" s="15"/>
@@ -7496,12 +7492,12 @@
       <c r="E102" s="15"/>
       <c r="F102" s="15"/>
       <c r="G102" s="15" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H102" s="15"/>
       <c r="I102" s="15"/>
       <c r="L102" s="15" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="M102" s="15"/>
       <c r="N102" s="15"/>
@@ -7534,7 +7530,7 @@
       <c r="E105" s="15"/>
       <c r="F105" s="15"/>
       <c r="G105" s="15" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H105" s="15"/>
       <c r="I105" s="15"/>
@@ -7561,7 +7557,7 @@
     </row>
     <row r="111" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D111" s="16" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E111" s="16"/>
       <c r="F111" s="16"/>
@@ -7571,7 +7567,7 @@
     </row>
     <row r="112" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D112" s="16" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E112" s="16"/>
       <c r="F112" s="16"/>
@@ -7581,7 +7577,7 @@
     </row>
     <row r="113" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D113" s="16" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E113" s="16"/>
       <c r="F113" s="16"/>
@@ -7591,14 +7587,14 @@
     </row>
     <row r="114" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D114" s="31" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E114" s="15"/>
       <c r="F114" s="15"/>
       <c r="G114" s="15"/>
       <c r="H114" s="15"/>
       <c r="K114" s="31" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="L114" s="15"/>
       <c r="M114" s="15"/>
@@ -7627,12 +7623,12 @@
       <c r="D116" s="15"/>
       <c r="E116" s="15"/>
       <c r="F116" s="15" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G116" s="15"/>
       <c r="H116" s="15"/>
       <c r="K116" s="15" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="L116" s="15"/>
       <c r="M116" s="15"/>
@@ -7640,7 +7636,7 @@
       <c r="O116" s="15"/>
       <c r="P116" s="15"/>
       <c r="Q116" s="16" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="117" spans="4:17" x14ac:dyDescent="0.25">
@@ -7648,7 +7644,7 @@
       <c r="E117" s="15"/>
       <c r="F117" s="15"/>
       <c r="G117" s="15" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H117" s="15"/>
       <c r="K117" s="15" t="s">
@@ -7669,7 +7665,7 @@
       </c>
       <c r="H118" s="15"/>
       <c r="K118" s="15" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="L118" s="15"/>
       <c r="M118" s="15"/>
@@ -7681,12 +7677,12 @@
       <c r="D119" s="15"/>
       <c r="E119" s="15"/>
       <c r="F119" s="15" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G119" s="15"/>
       <c r="H119" s="15"/>
       <c r="K119" s="28" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="L119" s="29"/>
       <c r="M119" s="29"/>
@@ -7694,7 +7690,7 @@
       <c r="O119" s="29"/>
       <c r="P119" s="30"/>
       <c r="Q119" s="16" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="120" spans="4:17" x14ac:dyDescent="0.25">
@@ -7702,11 +7698,11 @@
       <c r="E120" s="15"/>
       <c r="F120" s="15"/>
       <c r="G120" s="15" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H120" s="15"/>
       <c r="K120" s="15" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="L120" s="15"/>
       <c r="M120" s="15"/>
@@ -7723,7 +7719,7 @@
       </c>
       <c r="H121" s="15"/>
       <c r="K121" s="15" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="L121" s="15"/>
       <c r="M121" s="15"/>
@@ -7738,7 +7734,7 @@
       <c r="G122" s="15"/>
       <c r="H122" s="15"/>
       <c r="K122" s="28" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="L122" s="29"/>
       <c r="M122" s="29"/>
@@ -7746,19 +7742,19 @@
       <c r="O122" s="29"/>
       <c r="P122" s="30"/>
       <c r="Q122" s="16" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="123" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D123" s="15"/>
       <c r="E123" s="15"/>
       <c r="F123" s="15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G123" s="15"/>
       <c r="H123" s="15"/>
       <c r="K123" s="15" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L123" s="15"/>
       <c r="M123" s="15"/>
@@ -7766,7 +7762,7 @@
       <c r="O123" s="15"/>
       <c r="P123" s="15"/>
       <c r="Q123" s="16" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="124" spans="4:17" x14ac:dyDescent="0.25">
@@ -7774,7 +7770,7 @@
       <c r="E124" s="15"/>
       <c r="F124" s="15"/>
       <c r="G124" s="15" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H124" s="15"/>
     </row>
@@ -7787,19 +7783,19 @@
       </c>
       <c r="H125" s="15"/>
       <c r="K125" s="15" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="126" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D126" s="15"/>
       <c r="E126" s="15"/>
       <c r="F126" s="15" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G126" s="15"/>
       <c r="H126" s="15"/>
       <c r="K126" s="15" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="L126" s="15"/>
       <c r="M126" s="15"/>
@@ -7809,11 +7805,11 @@
       <c r="E127" s="15"/>
       <c r="F127" s="15"/>
       <c r="G127" s="15" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H127" s="15"/>
       <c r="K127" s="15" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="L127" s="15"/>
       <c r="M127" s="15"/>
@@ -7827,7 +7823,7 @@
       </c>
       <c r="H128" s="15"/>
       <c r="K128" s="15" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="L128" s="15"/>
       <c r="M128" s="15"/>
@@ -7839,12 +7835,12 @@
       <c r="G129" s="15"/>
       <c r="H129" s="15"/>
       <c r="K129" s="15" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="L129" s="15"/>
       <c r="M129" s="15"/>
       <c r="P129" s="31" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="130" spans="4:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -7856,18 +7852,18 @@
       <c r="G130" s="15"/>
       <c r="H130" s="15"/>
       <c r="K130" s="28" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="L130" s="29"/>
       <c r="M130" s="30"/>
       <c r="N130" s="38"/>
       <c r="P130" s="15" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="Q130" s="15"/>
       <c r="R130" s="15"/>
       <c r="S130" s="39" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="T130" s="40"/>
     </row>
@@ -7876,21 +7872,21 @@
       <c r="E131" s="15"/>
       <c r="F131" s="15"/>
       <c r="G131" s="15" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H131" s="15"/>
       <c r="K131" s="15" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="L131" s="15"/>
       <c r="M131" s="15"/>
       <c r="P131" s="15" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="Q131" s="15"/>
       <c r="R131" s="15"/>
       <c r="S131" s="41" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="T131" s="42"/>
     </row>
@@ -7903,12 +7899,12 @@
       </c>
       <c r="H132" s="15"/>
       <c r="K132" s="15" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="L132" s="15"/>
       <c r="M132" s="15"/>
       <c r="P132" s="15" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="Q132" s="15"/>
       <c r="R132" s="15"/>
@@ -7922,7 +7918,7 @@
       <c r="G133" s="15"/>
       <c r="H133" s="15"/>
       <c r="K133" s="15" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="L133" s="15"/>
       <c r="M133" s="15"/>
